--- a/RapidMiner/classification_results/Evaluation.xlsx
+++ b/RapidMiner/classification_results/Evaluation.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="KNN 50 Basic" sheetId="1" r:id="rId1"/>
-    <sheet name="KNN 50 improved" sheetId="2" r:id="rId2"/>
+    <sheet name="KNN 50 improved" sheetId="2" r:id="rId1"/>
+    <sheet name="KNN 50 Basic" sheetId="1" r:id="rId2"/>
     <sheet name="Naive Bayes" sheetId="3" r:id="rId3"/>
     <sheet name="SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="All" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>True Pos</t>
   </si>
@@ -42,14 +43,44 @@
     <t>Recall:</t>
   </si>
   <si>
-    <t>Occurency:</t>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNN 50 </t>
+  </si>
+  <si>
+    <t>KNN 50 Basic</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,21 +142,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,14 +487,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f xml:space="preserve"> B2 / (B2+C2)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/(C3+B3)</f>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/(B2+B3)</f>
+        <v>0.625</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3/(C3+C2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(B4+C4) /2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
@@ -553,15 +671,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
@@ -576,17 +694,17 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
         <f xml:space="preserve"> B2 / (B2+C2)</f>
-        <v>0.77777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -597,23 +715,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
         <f>C3/(C3+B3)</f>
-        <v>0.8666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="B5">
+        <f>B2+B3</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>C2+C3</f>
+        <v>16</v>
+      </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5">
         <f>B2/(B2+B3)</f>
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -622,7 +748,7 @@
       </c>
       <c r="F6">
         <f>C3/(C3+C2)</f>
-        <v>0.8666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -631,106 +757,7 @@
       </c>
       <c r="F8">
         <f>(F5+F6) /2</f>
-        <v>0.82222222222222219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <f xml:space="preserve"> B2 / (B2+C2)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <f>C3/(C3+B3)</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
-        <f>B2+B3</f>
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <f>C2+C3</f>
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f>B2/(B2+B3)</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f>C3/(C3+C2)</f>
-        <v>0.29411764705882354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <f>(F5+F6) /2</f>
-        <v>0.57563025210084029</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -744,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
@@ -853,4 +880,129 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.57563025210084029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(F4+G4) /2</f>
+        <v>0.28781512605042014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>